--- a/UI/res/本迭代是否投产(必填).xlsx
+++ b/UI/res/本迭代是否投产(必填).xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickj\FromGithub\pyqt_UIDesign\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickj\FromGithub\pyqt_UIDesign\UI\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668B8D9D-44E9-4C83-9E75-A4DD39EAF004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3188EC5-D29E-4A28-B12E-1755BFC5C45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93781F1D-0D91-43D6-AF62-95D478E493D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="生产是否投产" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
